--- a/US1_Grundlagen-Ultraschall/breite.xlsx
+++ b/US1_Grundlagen-Ultraschall/breite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>1Mhz</t>
   </si>
@@ -41,14 +41,20 @@
   <si>
     <t>real2</t>
   </si>
+  <si>
+    <t>t1/2</t>
+  </si>
+  <si>
+    <t>t2/2</t>
+  </si>
+  <si>
+    <t>delta b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -382,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,8 +416,26 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1">
+        <v>3.8119999999999999E-3</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1">
+        <f>0.127767/2</f>
+        <v>6.3883499999999996E-2</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42.1</v>
       </c>
@@ -419,24 +443,24 @@
         <v>13.2</v>
       </c>
       <c r="C2" s="1">
-        <f>-4.01867/2+E2</f>
-        <v>55.143941000000005</v>
+        <f>-4.19931/2+E2</f>
+        <v>55.180657750000002</v>
       </c>
       <c r="D2" s="1">
-        <f>-4.01867/2+F2</f>
-        <v>15.910457000000001</v>
+        <f>-4.19931/2+F2</f>
+        <v>15.859968</v>
       </c>
       <c r="E2" s="1">
-        <f>2.71512/2*A2</f>
-        <v>57.153276000000005</v>
+        <f>2.721155/2*A2</f>
+        <v>57.28031275</v>
       </c>
       <c r="F2" s="1">
-        <f>2.71512/2*B2</f>
-        <v>17.919792000000001</v>
+        <f>2.721155/2*B2</f>
+        <v>17.959623000000001</v>
       </c>
       <c r="G2" s="1">
-        <f>ABS(79.7-(C2+D2))</f>
-        <v>8.6456019999999967</v>
+        <f>79.7-(C2+D2)</f>
+        <v>8.6593742499999991</v>
       </c>
       <c r="H2" s="1">
         <f>A2/2</f>
@@ -446,11 +470,28 @@
         <f>B2/2</f>
         <v>6.6</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <f>H2*$J$1</f>
+        <v>8.0242599999999997E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <f>I2*$J$1</f>
+        <v>2.5159199999999996E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SQRT(J2^2+$L$1^2)</f>
+        <v>0.10256693632457781</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SQRT(K2^2+$L$1^2)</f>
+        <v>6.8659208536728702E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <f>SQRT(0.2^2+L2^2+M2^2)</f>
+        <v>0.2350192829192958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12.2</v>
       </c>
@@ -458,38 +499,55 @@
         <v>48.2</v>
       </c>
       <c r="C3" s="1">
-        <f>-4.01867/2+E3</f>
-        <v>14.552897000000002</v>
+        <f t="shared" ref="C3:D11" si="0">-4.19931/2+E3</f>
+        <v>14.499390499999999</v>
       </c>
       <c r="D3" s="1">
-        <f>-4.01867/2+F3</f>
-        <v>63.425057000000002</v>
+        <f t="shared" si="0"/>
+        <v>63.480180500000003</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E11" si="0">2.71512/2*A3</f>
-        <v>16.562232000000002</v>
+        <f t="shared" ref="E3:F11" si="1">2.721155/2*A3</f>
+        <v>16.599045499999999</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F11" si="1">2.71512/2*B3</f>
-        <v>65.434392000000003</v>
+        <f t="shared" si="1"/>
+        <v>65.579835500000002</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G11" si="2">ABS(79.7-(C3+D3))</f>
-        <v>1.7220459999999917</v>
+        <f t="shared" ref="G3:G33" si="2">79.7-(C3+D3)</f>
+        <v>1.7204289999999958</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:I11" si="3">A3/2</f>
+        <f t="shared" ref="H3:H33" si="3">A3/2</f>
         <v>6.1</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I3:I33" si="4">B3/2</f>
         <v>24.1</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J11" si="5">H3*$J$1</f>
+        <v>2.3253199999999998E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K11" si="6">I3*$J$1</f>
+        <v>9.1869199999999998E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:M11" si="7">SQRT(J3^2+$L$1^2)</f>
+        <v>6.7983916351516543E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="7"/>
+        <v>0.11189750435505699</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N33" si="8">SQRT(0.2^2+L3^2+M3^2)</f>
+        <v>0.23904573696968537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>18.2</v>
       </c>
@@ -497,38 +555,55 @@
         <v>42.3</v>
       </c>
       <c r="C4" s="1">
-        <f>-4.01867/2+E4</f>
-        <v>22.698257000000002</v>
+        <f t="shared" si="0"/>
+        <v>22.662855499999999</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D3:D11" si="4">-4.01867/2+F4</f>
-        <v>55.415452999999999</v>
+        <f t="shared" si="0"/>
+        <v>55.45277325</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>24.707592000000002</v>
+        <f t="shared" si="1"/>
+        <v>24.762510499999998</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>57.424787999999999</v>
+        <v>57.552428249999998</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="2"/>
-        <v>1.5862900000000053</v>
+        <v>1.5843712500000038</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="3"/>
         <v>9.1</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.15</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4689199999999996E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="6"/>
+        <v>8.0623799999999995E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="7"/>
+        <v>7.2694168740621831E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.10286543976812619</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.2363593469012385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>24.1</v>
       </c>
@@ -536,38 +611,55 @@
         <v>36.4</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C3:C11" si="5">-4.01867/2+E5</f>
-        <v>30.707861000000001</v>
+        <f t="shared" si="0"/>
+        <v>30.690262750000002</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="4"/>
-        <v>47.405849000000003</v>
+        <f t="shared" si="0"/>
+        <v>47.425365999999997</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>32.717196000000001</v>
+        <f t="shared" si="1"/>
+        <v>32.789917750000001</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>49.415184000000004</v>
+        <v>49.525020999999995</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>1.5862900000000053</v>
+        <v>1.5843712500000038</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="3"/>
         <v>12.05</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.2</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <f t="shared" si="5"/>
+        <v>4.5934599999999999E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="6"/>
+        <v>6.9378399999999993E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="7"/>
+        <v>7.8683473801110224E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="7"/>
+        <v>9.4310465796803258E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.23470311674159763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30.1</v>
       </c>
@@ -575,38 +667,55 @@
         <v>30.5</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
-        <v>38.853221000000005</v>
+        <f t="shared" si="0"/>
+        <v>38.853727750000004</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="4"/>
-        <v>39.396245</v>
+        <f t="shared" si="0"/>
+        <v>39.397958750000001</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>40.862556000000005</v>
+        <f t="shared" si="1"/>
+        <v>40.953382750000003</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>41.40558</v>
+        <v>41.497613749999999</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>1.4505339999999904</v>
+        <v>1.4483134999999976</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="3"/>
         <v>15.05</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.25</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <f t="shared" si="5"/>
+        <v>5.7370600000000001E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="6"/>
+        <v>5.8132999999999997E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="7"/>
+        <v>8.5863189532010747E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="7"/>
+        <v>8.6374459542448073E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.23416454594549535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>35.5</v>
       </c>
@@ -614,38 +723,55 @@
         <v>24.4</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
-        <v>46.184045000000005</v>
+        <f t="shared" si="0"/>
+        <v>46.200846249999998</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="4"/>
-        <v>31.115129000000003</v>
+        <f t="shared" si="0"/>
+        <v>31.098436</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>48.193380000000005</v>
+        <f t="shared" si="1"/>
+        <v>48.300501249999996</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>33.124464000000003</v>
+        <v>33.198090999999998</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>2.400825999999995</v>
+        <v>2.4007177499999983</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="3"/>
         <v>17.75</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.2</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <f t="shared" si="5"/>
+        <v>6.7663000000000001E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="6"/>
+        <v>4.6506399999999996E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="7"/>
+        <v>9.3055806596095872E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="7"/>
+        <v>7.9018648515461212E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.23431459611910652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41.2</v>
       </c>
@@ -653,38 +779,55 @@
         <v>18</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
-        <v>53.922137000000006</v>
+        <f t="shared" si="0"/>
+        <v>53.956138000000003</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="4"/>
-        <v>22.426745</v>
+        <f t="shared" si="0"/>
+        <v>22.390740000000001</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>55.931472000000007</v>
+        <f t="shared" si="1"/>
+        <v>56.055793000000001</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>24.43608</v>
+        <v>24.490394999999999</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>3.3511179999999996</v>
+        <v>3.353121999999999</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="3"/>
         <v>20.6</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <f t="shared" si="5"/>
+        <v>7.8527200000000005E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="6"/>
+        <v>3.4307999999999998E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.10123054238761145</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="7"/>
+        <v>7.2513036319340529E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.23559661107142438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>46.5</v>
       </c>
@@ -692,38 +835,55 @@
         <v>11.7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
-        <v>61.117205000000006</v>
+        <f t="shared" si="0"/>
+        <v>61.167198750000004</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="4"/>
-        <v>13.874117</v>
+        <f t="shared" si="0"/>
+        <v>13.819101749999998</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>63.126540000000006</v>
+        <f t="shared" si="1"/>
+        <v>63.266853750000003</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>15.883452</v>
+        <v>15.918756749999998</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>4.7086779999999919</v>
+        <v>4.7136995000000042</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="3"/>
         <v>23.25</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.85</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <f t="shared" si="5"/>
+        <v>8.8628999999999999E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2300199999999999E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.10925292313366265</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="7"/>
+        <v>6.76638787854347E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="8"/>
+        <v>0.23772799941433068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -731,38 +891,55 @@
         <v>46.3</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
-        <v>18.354065000000002</v>
+        <f t="shared" si="0"/>
+        <v>18.3090075</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="4"/>
-        <v>60.845692999999997</v>
+        <f t="shared" si="0"/>
+        <v>60.895083249999999</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>20.363400000000002</v>
+        <f t="shared" si="1"/>
+        <v>20.408662499999998</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>62.855027999999997</v>
+        <v>62.994738249999997</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>0.50024200000000008</v>
+        <v>0.49590924999999686</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.15</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8589999999999997E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="6"/>
+        <v>8.8247799999999987E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="7"/>
+        <v>6.9989211113213726E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.10894391115197764</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="8"/>
+        <v>0.2382588202970459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -770,38 +947,55 @@
         <v>45.5</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
-        <v>19.847381000000002</v>
+        <f t="shared" si="0"/>
+        <v>19.805642750000004</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="4"/>
-        <v>59.759645000000006</v>
+        <f t="shared" si="0"/>
+        <v>59.806621249999999</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>21.856716000000002</v>
+        <f t="shared" si="1"/>
+        <v>21.905297750000003</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>61.768980000000006</v>
+        <v>61.906276249999998</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>9.2973999999998114E-2</v>
+        <v>8.7735999999992487E-2</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="3"/>
         <v>8.0500000000000007</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.75</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0686600000000001E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="6"/>
+        <v>8.6722999999999995E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="7"/>
+        <v>7.0871496328284184E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1077124890681206</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="8"/>
+        <v>0.23795955390162424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -811,8 +1005,19 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>1.0836E-2</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>0.35695300000000002</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40.9</v>
       </c>
@@ -820,27 +1025,55 @@
         <v>12.2</v>
       </c>
       <c r="C13" s="1">
-        <f>-1.71762/2+E13</f>
-        <v>54.425515500000003</v>
+        <f>-1.76702/2+E13</f>
+        <v>54.438443499999991</v>
       </c>
       <c r="D13" s="1">
-        <f>-1.71762/2+F13</f>
-        <v>15.631869</v>
+        <f>-1.76702/2+F13</f>
+        <v>15.618392999999999</v>
       </c>
       <c r="E13" s="1">
-        <f>2.70339/2*A13</f>
-        <v>55.284325500000001</v>
+        <f>2.70523/2*A13</f>
+        <v>55.321953499999992</v>
       </c>
       <c r="F13" s="1">
-        <f>2.70339/2*B13</f>
-        <v>16.490679</v>
+        <f>2.70523/2*B13</f>
+        <v>16.501902999999999</v>
       </c>
       <c r="G13" s="1">
-        <f>ABS(79.7-(C13+D13))</f>
-        <v>9.6426155000000051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>9.6431635000000142</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>20.45</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+      <c r="J13" s="1">
+        <f>H2*$J$12</f>
+        <v>0.22809780000000002</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I2*$J$12</f>
+        <v>7.1517600000000001E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <f>SQRT(J13^2+$L$12^2)</f>
+        <v>0.42360836933875617</v>
+      </c>
+      <c r="M13" s="1">
+        <f>SQRT(K13^2+$L$12^2)</f>
+        <v>0.36404699053660644</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="8"/>
+        <v>0.59327418778554664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11.2</v>
       </c>
@@ -848,27 +1081,55 @@
         <v>47.1</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:C22" si="6">-1.71762/2+E14</f>
-        <v>14.280174000000001</v>
+        <f t="shared" ref="C14:C22" si="9">-1.76702/2+E14</f>
+        <v>14.265777999999999</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:D22" si="7">-1.71762/2+F14</f>
-        <v>62.806024500000007</v>
+        <f t="shared" ref="D14:D22" si="10">-1.76702/2+F14</f>
+        <v>62.824656499999996</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:E22" si="8">2.70339/2*A14</f>
-        <v>15.138984000000001</v>
+        <f t="shared" ref="E14:E22" si="11">2.70523/2*A14</f>
+        <v>15.149287999999999</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14:F22" si="9">2.70339/2*B14</f>
-        <v>63.664834500000005</v>
+        <f t="shared" ref="F14:F22" si="12">2.70523/2*B14</f>
+        <v>63.708166499999997</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G22" si="10">ABS(79.7-(C14+D14))</f>
-        <v>2.6138014999999939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.6095655000000022</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
+        <v>23.55</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:K22" si="13">H3*$J$12</f>
+        <v>6.6099599999999994E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="13"/>
+        <v>0.26114760000000004</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ref="L14:M24" si="14">SQRT(J14^2+$L$12^2)</f>
+        <v>0.36302148879806007</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="14"/>
+        <v>0.44228216468082915</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="8"/>
+        <v>0.60613374309959034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -876,27 +1137,55 @@
         <v>41.2</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
-        <v>22.255174500000006</v>
+        <f t="shared" si="9"/>
+        <v>22.2462065</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="7"/>
-        <v>54.831024000000006</v>
+        <f t="shared" si="10"/>
+        <v>54.844228000000001</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="8"/>
-        <v>23.113984500000004</v>
+        <f t="shared" si="11"/>
+        <v>23.129716500000001</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="9"/>
-        <v>55.689834000000005</v>
+        <f t="shared" si="12"/>
+        <v>55.727738000000002</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6138014999999939</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.6095655000000022</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>20.6</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="13"/>
+        <v>9.8607600000000004E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="13"/>
+        <v>0.22918139999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="14"/>
+        <v>0.3703227011496325</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="14"/>
+        <v>0.4241928315223632</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="8"/>
+        <v>0.59756042481218585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>23</v>
       </c>
@@ -904,27 +1193,55 @@
         <v>35.299999999999997</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
-        <v>30.230175000000003</v>
+        <f t="shared" si="9"/>
+        <v>30.226634999999998</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="7"/>
-        <v>46.856023499999999</v>
+        <f t="shared" si="10"/>
+        <v>46.863799499999992</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="8"/>
-        <v>31.088985000000001</v>
+        <f t="shared" si="11"/>
+        <v>31.110144999999999</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="9"/>
-        <v>47.714833499999997</v>
+        <f t="shared" si="12"/>
+        <v>47.747309499999993</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6138015000000081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.6095655000000164</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>17.649999999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13057380000000002</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="13"/>
+        <v>0.19721520000000001</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="14"/>
+        <v>0.38008546598816434</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="14"/>
+        <v>0.40781034724494181</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="8"/>
+        <v>0.59226196971904255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>29</v>
       </c>
@@ -932,27 +1249,55 @@
         <v>29.3</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
-        <v>38.340345000000006</v>
+        <f t="shared" si="9"/>
+        <v>38.342324999999995</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="7"/>
-        <v>38.745853500000003</v>
+        <f t="shared" si="10"/>
+        <v>38.748109499999998</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="8"/>
-        <v>39.199155000000005</v>
+        <f t="shared" si="11"/>
+        <v>39.225834999999996</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="9"/>
-        <v>39.604663500000001</v>
+        <f t="shared" si="12"/>
+        <v>39.631619499999999</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6138014999999939</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.6095655000000164</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>14.65</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="13"/>
+        <v>0.1630818</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="13"/>
+        <v>0.16524900000000001</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="14"/>
+        <v>0.39244250241307965</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="14"/>
+        <v>0.39334803445549338</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="8"/>
+        <v>0.59053686922176174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>34.4</v>
       </c>
@@ -960,27 +1305,55 @@
         <v>23.2</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
-        <v>45.639498000000003</v>
+        <f t="shared" si="9"/>
+        <v>45.64644599999999</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="7"/>
-        <v>30.500514000000003</v>
+        <f t="shared" si="10"/>
+        <v>30.497157999999995</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="8"/>
-        <v>46.498308000000002</v>
+        <f t="shared" si="11"/>
+        <v>46.529955999999991</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="9"/>
-        <v>31.359324000000001</v>
+        <f t="shared" si="12"/>
+        <v>31.380667999999996</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="10"/>
-        <v>3.5599879999999899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.5563960000000208</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>17.2</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>11.6</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="13"/>
+        <v>0.19233900000000001</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13219919999999999</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="14"/>
+        <v>0.40547470344030101</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="14"/>
+        <v>0.3806469134114186</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="8"/>
+        <v>0.59101760364615197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40</v>
       </c>
@@ -988,27 +1361,55 @@
         <v>16.8</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
-        <v>53.208990000000007</v>
+        <f t="shared" si="9"/>
+        <v>53.221089999999997</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="7"/>
-        <v>21.849666000000003</v>
+        <f t="shared" si="10"/>
+        <v>21.840421999999997</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="8"/>
-        <v>54.067800000000005</v>
+        <f t="shared" si="11"/>
+        <v>54.104599999999998</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="9"/>
-        <v>22.708476000000001</v>
+        <f t="shared" si="12"/>
+        <v>22.723931999999998</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="10"/>
-        <v>4.6413439999999895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>4.6384880000000095</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>8.4</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="13"/>
+        <v>0.22322160000000002</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="13"/>
+        <v>9.7524E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="14"/>
+        <v>0.42100276354860194</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="14"/>
+        <v>0.37003563988486304</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="8"/>
+        <v>0.59512158564495043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45.5</v>
       </c>
@@ -1016,27 +1417,55 @@
         <v>10.7</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
-        <v>60.643312500000008</v>
+        <f t="shared" si="9"/>
+        <v>60.660472499999997</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="7"/>
-        <v>13.604326499999999</v>
+        <f t="shared" si="10"/>
+        <v>13.589470499999999</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="8"/>
-        <v>61.502122500000006</v>
+        <f t="shared" si="11"/>
+        <v>61.543982499999998</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="9"/>
-        <v>14.463136499999999</v>
+        <f t="shared" si="12"/>
+        <v>14.472980499999998</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="10"/>
-        <v>5.4523609999999962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>5.450057000000001</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>22.75</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>5.35</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="13"/>
+        <v>0.25193700000000002</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="13"/>
+        <v>6.3390599999999991E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="14"/>
+        <v>0.43690696512873317</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="14"/>
+        <v>0.36253801507891559</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="8"/>
+        <v>0.60193148161178611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1044,27 +1473,55 @@
         <v>45.6</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
-        <v>18.064920000000004</v>
+        <f t="shared" si="9"/>
+        <v>18.053099999999997</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="7"/>
-        <v>60.778482000000011</v>
+        <f t="shared" si="10"/>
+        <v>60.795733999999996</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="8"/>
-        <v>18.923730000000003</v>
+        <f t="shared" si="11"/>
+        <v>18.936609999999998</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="9"/>
-        <v>61.637292000000009</v>
+        <f t="shared" si="12"/>
+        <v>61.679243999999997</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="10"/>
-        <v>0.85659799999999109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.85116600000000631</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>22.8</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="13"/>
+        <v>8.1269999999999995E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="13"/>
+        <v>0.2508534</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="14"/>
+        <v>0.36608777241120749</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="14"/>
+        <v>0.43628301880838777</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="8"/>
+        <v>0.60362499087559329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>15.3</v>
       </c>
@@ -1072,27 +1529,55 @@
         <v>44.4</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
-        <v>19.822123500000004</v>
+        <f t="shared" si="9"/>
+        <v>19.8114995</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="7"/>
-        <v>59.156448000000005</v>
+        <f t="shared" si="10"/>
+        <v>59.172595999999992</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="8"/>
-        <v>20.680933500000002</v>
+        <f t="shared" si="11"/>
+        <v>20.695009500000001</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="9"/>
-        <v>60.015258000000003</v>
+        <f t="shared" si="12"/>
+        <v>60.056105999999993</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="10"/>
-        <v>0.72142849999998759</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.71590450000000772</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>7.65</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>22.2</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="13"/>
+        <v>8.722980000000001E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="13"/>
+        <v>0.24651900000000002</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="14"/>
+        <v>0.3674567759846592</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="14"/>
+        <v>0.43380532681146278</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="8"/>
+        <v>0.60267034420737853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1102,8 +1587,19 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <v>1.3929999999999999E-3</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
+        <v>3.1778000000000001E-2</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40.6</v>
       </c>
@@ -1111,27 +1607,55 @@
         <v>11.8</v>
       </c>
       <c r="C24" s="1">
-        <f>-1.82042/2+E24</f>
-        <v>54.627545000000005</v>
+        <f>-1.7631/2+E24</f>
+        <v>54.685234000000008</v>
       </c>
       <c r="D24" s="1">
-        <f>-1.82042/2+F24</f>
-        <v>15.231305000000003</v>
+        <f>-1.7631/2+F24</f>
+        <v>15.268402000000002</v>
       </c>
       <c r="E24" s="1">
-        <f>2.73585/2*A24</f>
-        <v>55.537755000000004</v>
+        <f>2.73728/2*A24</f>
+        <v>55.566784000000006</v>
       </c>
       <c r="F24" s="1">
-        <f>2.73585/2*B24</f>
-        <v>16.141515000000002</v>
+        <f>2.73728/2*B24</f>
+        <v>16.149952000000003</v>
       </c>
       <c r="G24" s="1">
-        <f>ABS(79.7-(C24+D24))</f>
-        <v>9.841149999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>9.7463639999999856</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>20.3</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="J24" s="1">
+        <f>H24*$J$23</f>
+        <v>2.8277899999999998E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <f>I24*$J$23</f>
+        <v>8.2187000000000007E-3</v>
+      </c>
+      <c r="L24" s="1">
+        <f>SQRT(J24^2+$L$23^2)</f>
+        <v>4.2537993751586359E-2</v>
+      </c>
+      <c r="M24" s="1">
+        <f>SQRT(K24^2+$L$23^2)</f>
+        <v>3.2823593857010842E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.20709145135929682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>10.9</v>
       </c>
@@ -1139,27 +1663,55 @@
         <v>46.6</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:C33" si="11">-1.82042/2+E25</f>
-        <v>14.000172500000001</v>
+        <f t="shared" ref="C25:C33" si="15">-1.7631/2+E25</f>
+        <v>14.036626</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:D33" si="12">-1.82042/2+F25</f>
-        <v>62.835095000000003</v>
+        <f t="shared" ref="D25:D33" si="16">-1.7631/2+F25</f>
+        <v>62.897074000000011</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ref="E25:E33" si="13">2.73585/2*A25</f>
-        <v>14.910382500000001</v>
+        <f t="shared" ref="E25:E33" si="17">2.73728/2*A25</f>
+        <v>14.918176000000001</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25:F33" si="14">2.73585/2*B25</f>
-        <v>63.745305000000002</v>
+        <f t="shared" ref="F25:F33" si="18">2.73728/2*B25</f>
+        <v>63.778624000000008</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25:G33" si="15">ABS(79.7-(C25+D25))</f>
-        <v>2.8647325000000023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.7662999999999869</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>5.45</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>23.3</v>
+      </c>
+      <c r="J25" s="1">
+        <f>H25*$J$23</f>
+        <v>7.5918499999999998E-3</v>
+      </c>
+      <c r="K25" s="1">
+        <f>I25*$J$23</f>
+        <v>3.2456899999999997E-2</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ref="L25:M33" si="19">SQRT(J25^2+$L$23^2)</f>
+        <v>3.2672273725936188E-2</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="19"/>
+        <v>4.5423470162571242E-2</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="8"/>
+        <v>0.2076794864979026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>16.7</v>
       </c>
@@ -1167,27 +1719,55 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="11"/>
-        <v>21.934137500000002</v>
+        <f t="shared" si="15"/>
+        <v>21.974737999999999</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="12"/>
-        <v>54.764337500000003</v>
+        <f t="shared" si="16"/>
+        <v>54.822098000000011</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="13"/>
-        <v>22.844347500000001</v>
+        <f t="shared" si="17"/>
+        <v>22.856287999999999</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="14"/>
-        <v>55.674547500000003</v>
+        <f t="shared" si="18"/>
+        <v>55.703648000000008</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="15"/>
-        <v>3.0015250000000009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.9031639999999896</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>8.35</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="J26" s="1">
+        <f>H26*$J$23</f>
+        <v>1.1631549999999999E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <f>I26*$J$23</f>
+        <v>2.8347549999999999E-2</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="19"/>
+        <v>3.3839832142055611E-2</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="19"/>
+        <v>4.2584326635541625E-2</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="8"/>
+        <v>0.20726446659860684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>22.6</v>
       </c>
@@ -1195,27 +1775,55 @@
         <v>34.799999999999997</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="11"/>
-        <v>30.004895000000005</v>
+        <f t="shared" si="15"/>
+        <v>30.049714000000002</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="12"/>
-        <v>46.693579999999997</v>
+        <f t="shared" si="16"/>
+        <v>46.747122000000005</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="13"/>
-        <v>30.915105000000004</v>
+        <f t="shared" si="17"/>
+        <v>30.931264000000002</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="14"/>
-        <v>47.603789999999996</v>
+        <f t="shared" si="18"/>
+        <v>47.628672000000002</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="15"/>
-        <v>3.0015250000000009</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.9031639999999896</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="3"/>
+        <v>11.3</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="4"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J27" s="1">
+        <f>H27*$J$23</f>
+        <v>1.5740899999999999E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <f>I27*$J$23</f>
+        <v>2.4238199999999998E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="19"/>
+        <v>3.5462899159685181E-2</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="19"/>
+        <v>3.9966631372183467E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="8"/>
+        <v>0.20701436868017159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28.5</v>
       </c>
@@ -1223,27 +1831,55 @@
         <v>28.9</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="11"/>
-        <v>38.075652500000004</v>
+        <f t="shared" si="15"/>
+        <v>38.124690000000008</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="12"/>
-        <v>38.622822499999998</v>
+        <f t="shared" si="16"/>
+        <v>38.672146000000005</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="13"/>
-        <v>38.985862500000003</v>
+        <f t="shared" si="17"/>
+        <v>39.006240000000005</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="14"/>
-        <v>39.533032499999997</v>
+        <f t="shared" si="18"/>
+        <v>39.553696000000002</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="15"/>
-        <v>3.0015250000000009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.9031639999999896</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="3"/>
+        <v>14.25</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="4"/>
+        <v>14.45</v>
+      </c>
+      <c r="J28" s="1">
+        <f>H28*$J$23</f>
+        <v>1.985025E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <f>I28*$J$23</f>
+        <v>2.0128849999999997E-2</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="19"/>
+        <v>3.7468302724603102E-2</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="19"/>
+        <v>3.7616643740803084E-2</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="8"/>
+        <v>0.20692724710725027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>33.9</v>
       </c>
@@ -1251,27 +1887,55 @@
         <v>22.8</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="11"/>
-        <v>45.462447500000003</v>
+        <f t="shared" si="15"/>
+        <v>45.515346000000001</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="12"/>
-        <v>30.278480000000002</v>
+        <f t="shared" si="16"/>
+        <v>30.323442000000004</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="13"/>
-        <v>46.372657500000003</v>
+        <f t="shared" si="17"/>
+        <v>46.396895999999998</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="14"/>
-        <v>31.188690000000001</v>
+        <f t="shared" si="18"/>
+        <v>31.204992000000004</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="15"/>
-        <v>3.9590725000000049</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.8612119999999948</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="3"/>
+        <v>16.95</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="4"/>
+        <v>11.4</v>
+      </c>
+      <c r="J29" s="1">
+        <f>H29*$J$23</f>
+        <v>2.3611349999999996E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <f>I29*$J$23</f>
+        <v>1.5880200000000001E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="19"/>
+        <v>3.9589608899590054E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="19"/>
+        <v>3.552494948680434E-2</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="8"/>
+        <v>0.20695255294115728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>39.5</v>
       </c>
@@ -1279,27 +1943,55 @@
         <v>16.399999999999999</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="11"/>
-        <v>53.1228275</v>
+        <f t="shared" si="15"/>
+        <v>53.179730000000006</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="12"/>
-        <v>21.523759999999999</v>
+        <f t="shared" si="16"/>
+        <v>21.564145999999997</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="13"/>
-        <v>54.033037499999999</v>
+        <f t="shared" si="17"/>
+        <v>54.061280000000004</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="14"/>
-        <v>22.433969999999999</v>
+        <f t="shared" si="18"/>
+        <v>22.445695999999998</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="15"/>
-        <v>5.0534125000000074</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>4.9561240000000026</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="3"/>
+        <v>19.75</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J30" s="1">
+        <f>H30*$J$23</f>
+        <v>2.7511749999999998E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <f>I30*$J$23</f>
+        <v>1.1422599999999998E-2</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="19"/>
+        <v>4.2032578698701084E-2</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="19"/>
+        <v>3.3768581177775293E-2</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="8"/>
+        <v>0.20714018139130444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45</v>
       </c>
@@ -1307,27 +1999,55 @@
         <v>10.4</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="11"/>
-        <v>60.646415000000005</v>
+        <f t="shared" si="15"/>
+        <v>60.707250000000009</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="12"/>
-        <v>13.316210000000002</v>
+        <f t="shared" si="16"/>
+        <v>13.352306</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="13"/>
-        <v>61.556625000000004</v>
+        <f t="shared" si="17"/>
+        <v>61.588800000000006</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="14"/>
-        <v>14.226420000000001</v>
+        <f t="shared" si="18"/>
+        <v>14.233856000000001</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="15"/>
-        <v>5.7373750000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>5.640443999999988</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2</v>
+      </c>
+      <c r="J31" s="1">
+        <f>H31*$J$23</f>
+        <v>3.1342499999999995E-2</v>
+      </c>
+      <c r="K31" s="1">
+        <f>I31*$J$23</f>
+        <v>7.2436000000000002E-3</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="19"/>
+        <v>4.4633995902786924E-2</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="19"/>
+        <v>3.2593113152320996E-2</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="8"/>
+        <v>0.20749579421089481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>13.6</v>
       </c>
@@ -1335,27 +2055,55 @@
         <v>45.1</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="11"/>
-        <v>17.693570000000001</v>
+        <f t="shared" si="15"/>
+        <v>17.731953999999998</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="12"/>
-        <v>60.783207500000003</v>
+        <f t="shared" si="16"/>
+        <v>60.844114000000012</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="13"/>
-        <v>18.60378</v>
+        <f t="shared" si="17"/>
+        <v>18.613503999999999</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="14"/>
-        <v>61.693417500000002</v>
+        <f t="shared" si="18"/>
+        <v>61.725664000000009</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="15"/>
-        <v>1.2232225000000057</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.1239319999999964</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>22.55</v>
+      </c>
+      <c r="J32" s="1">
+        <f>H32*$J$23</f>
+        <v>9.4723999999999989E-3</v>
+      </c>
+      <c r="K32" s="1">
+        <f>I32*$J$23</f>
+        <v>3.141215E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="19"/>
+        <v>3.3159729277543869E-2</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="19"/>
+        <v>4.4682932442068973E-2</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="8"/>
+        <v>0.207596079195592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>14.9</v>
       </c>
@@ -1363,24 +2111,52 @@
         <v>43.8</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="11"/>
-        <v>19.471872500000003</v>
+        <f t="shared" si="15"/>
+        <v>19.511186000000002</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="12"/>
-        <v>59.004905000000001</v>
+        <f t="shared" si="16"/>
+        <v>59.064882000000004</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="13"/>
-        <v>20.382082500000003</v>
+        <f t="shared" si="17"/>
+        <v>20.392736000000003</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="14"/>
-        <v>59.915115</v>
+        <f t="shared" si="18"/>
+        <v>59.946432000000001</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="15"/>
-        <v>1.2232225000000057</v>
+        <f t="shared" si="2"/>
+        <v>1.1239319999999964</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="3"/>
+        <v>7.45</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="4"/>
+        <v>21.9</v>
+      </c>
+      <c r="J33" s="1">
+        <f>H33*$J$23</f>
+        <v>1.0377849999999999E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <f>I33*$J$23</f>
+        <v>3.0506699999999998E-2</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="19"/>
+        <v>3.3429643351709573E-2</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="19"/>
+        <v>4.4051107010948089E-2</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="8"/>
+        <v>0.20750431581900292</v>
       </c>
     </row>
   </sheetData>
